--- a/TP04/documents/Form amélioration du processus.xlsx
+++ b/TP04/documents/Form amélioration du processus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>La vérification 'Les boucles sont-elles correctement documentées ?' dans la liste de vérification du design détaillé n'est pas applicable</t>
+  </si>
+  <si>
+    <t>Retrait de cette élément dans la liste de vérification du design détaillé</t>
   </si>
 </sst>
 </file>
@@ -398,12 +404,14 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="2" max="2" width="143.25" customWidth="1"/>
     <col min="3" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,8 +456,12 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -508,8 +520,12 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>

--- a/TP04/documents/Form amélioration du processus.xlsx
+++ b/TP04/documents/Form amélioration du processus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Retrait de cette élément dans la liste de vérification du design détaillé</t>
+  </si>
+  <si>
+    <t>Dans la liste de vérification du code, je considère qu'il manque l'ajout obligatoire de commentaires pour chaques fonctions</t>
+  </si>
+  <si>
+    <t>Ajouter l'élément 'Les commentaires décrivent bien chacune des fonctions' dans la liste de vérification du code.</t>
   </si>
 </sst>
 </file>
@@ -404,8 +410,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -464,8 +470,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -528,8 +538,12 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
